--- a/biology/Botanique/Platycodon/Platycodon.xlsx
+++ b/biology/Botanique/Platycodon/Platycodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Platycodon est un genre de plantes de la famille des Campanulaceae. Originaire d’extrême orient[2] (Japon, Corée, Chine, Russie)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platycodon est un genre de plantes de la famille des Campanulaceae. Originaire d’extrême orient (Japon, Corée, Chine, Russie).
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 septembre 2018)[4], Catalogue of Life                                   (3 septembre 2018)[5], ITIS      (3 septembre 2018)[6],World Checklist of Selected Plant Families (WCSP)  (3 septembre 2018)[7], NCBI  (3 septembre 2018)[8] et The Plant List            (3 septembre 2018)[9] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 septembre 2018), Catalogue of Life                                   (3 septembre 2018), ITIS      (3 septembre 2018),World Checklist of Selected Plant Families (WCSP)  (3 septembre 2018), NCBI  (3 septembre 2018) et The Plant List            (3 septembre 2018) :
 Platycodon grandiflorus (Jacq.) A.DC. (1830)
-Selon GRIN            (3 septembre 2018)[10] :
+Selon GRIN            (3 septembre 2018) :
 Platycodon grandiflorus (Jacq.) A. DC.
 Platycodon spp.
-Selon Tropicos                                           (3 septembre 2018)[1] :
+Selon Tropicos                                           (3 septembre 2018) :
 Platycodon autumnalis Decne., synonyme de Platycodon grandiflorus
 Platycodon chinensis Lindl. &amp; Paxton, synonyme de Platycodon grandiflorus
 Platycodon glaucus (Thunb.) Nakai, synonyme de Platycodon grandiflorus
